--- a/formatos_hoja_de_calculo/CATALOGO DE RIESGOS.xlsx
+++ b/formatos_hoja_de_calculo/CATALOGO DE RIESGOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CA888-8333-4CF6-B81D-1B6A7319697C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AA75FC-EEF4-479C-83A0-074421B87A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,13 +771,13 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,13 +1109,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1556,7 +1556,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,10 +1573,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>46</v>
       </c>
       <c r="C3">
@@ -1585,10 +1585,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="42" t="s">
         <v>47</v>
       </c>
       <c r="C4">
@@ -1597,10 +1597,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C5">
@@ -1609,10 +1609,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>49</v>
       </c>
       <c r="C6">
@@ -1621,10 +1621,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>50</v>
       </c>
       <c r="C7">
@@ -1633,10 +1633,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>51</v>
       </c>
       <c r="C8">
@@ -1645,10 +1645,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>52</v>
       </c>
       <c r="C9">
@@ -1657,14 +1657,14 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="42"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
